--- a/mainboard-v05/assembly/hardware_tracker.xlsx
+++ b/mainboard-v05/assembly/hardware_tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/Desktop/NYU_PyCubed_build/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flynn/Desktop/f/projects/present/ISP-cubesat/mainboard-v05/assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D5B2E6-F4DC-3944-B010-EA832D246F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C6F77-83FD-2841-84C1-B651778C988C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="0" windowWidth="34460" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="640" windowWidth="25920" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board status - checkouts" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Board</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Untested</t>
   </si>
   <si>
-    <t>26.64 mW</t>
-  </si>
-  <si>
     <t>55 mW</t>
   </si>
   <si>
@@ -155,15 +152,6 @@
     <t>replaced J19 chip with fresh J20 after initial bootup</t>
   </si>
   <si>
-    <t>repaired USB-C connector</t>
-  </si>
-  <si>
-    <t>intermittent</t>
-  </si>
-  <si>
-    <t>FALSE (disabled)</t>
-  </si>
-  <si>
     <t>Schenactady</t>
   </si>
   <si>
@@ -177,6 +165,21 @@
   </si>
   <si>
     <t>switch to micro-USB</t>
+  </si>
+  <si>
+    <t>repaired USB-C connector, then replaced with micro USB</t>
+  </si>
+  <si>
+    <t>120.4 mW</t>
+  </si>
+  <si>
+    <t>116 mW</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>63 mW</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -494,7 +497,7 @@
     <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
@@ -515,8 +518,8 @@
     <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -595,10 +598,10 @@
         <v>19</v>
       </c>
       <c r="AA1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>21</v>
@@ -612,13 +615,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
@@ -685,16 +688,16 @@
         <v>34</v>
       </c>
       <c r="AA2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="AC2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -702,13 +705,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
@@ -725,16 +728,18 @@
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1"/>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="N3" s="5" t="s">
         <v>25</v>
       </c>
@@ -771,6 +776,18 @@
       </c>
       <c r="Z3" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -845,7 +862,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -861,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -888,16 +905,16 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
